--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779340</v>
+      </c>
+      <c r="D2" t="n">
+        <v>808994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>106616</v>
+      </c>
+      <c r="F2" t="n">
+        <v>334986</v>
+      </c>
       <c r="G2" t="n">
-        <v>864677</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1444615</v>
+      </c>
+      <c r="H2" t="n">
+        <v>124560</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2924</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22248</v>
+      </c>
+      <c r="C3" t="n">
+        <v>903394</v>
+      </c>
+      <c r="D3" t="n">
+        <v>939627</v>
+      </c>
+      <c r="E3" t="n">
+        <v>113756</v>
+      </c>
+      <c r="F3" t="n">
+        <v>314260</v>
+      </c>
       <c r="G3" t="n">
-        <v>880408</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1661823</v>
+      </c>
+      <c r="H3" t="n">
+        <v>168950</v>
+      </c>
+      <c r="I3" t="n">
+        <v>77639</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25343</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23699</v>
+      </c>
+      <c r="C4" t="n">
+        <v>966590</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1005177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>148687</v>
+      </c>
+      <c r="F4" t="n">
+        <v>272606</v>
+      </c>
       <c r="G4" t="n">
-        <v>907508</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1838707</v>
+      </c>
+      <c r="H4" t="n">
+        <v>221762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>139948</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26828</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25498</v>
+      </c>
+      <c r="C5" t="n">
+        <v>921164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>953359</v>
+      </c>
+      <c r="E5" t="n">
+        <v>122712</v>
+      </c>
+      <c r="F5" t="n">
+        <v>251233</v>
+      </c>
       <c r="G5" t="n">
-        <v>972075</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1941679</v>
+      </c>
+      <c r="H5" t="n">
+        <v>389546</v>
+      </c>
+      <c r="I5" t="n">
+        <v>176927</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22404</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29116</v>
+      </c>
+      <c r="C6" t="n">
+        <v>944708</v>
+      </c>
+      <c r="D6" t="n">
+        <v>978342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>133104</v>
+      </c>
+      <c r="F6" t="n">
+        <v>255454</v>
+      </c>
       <c r="G6" t="n">
-        <v>986082</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>2015667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>376192</v>
+      </c>
+      <c r="I6" t="n">
+        <v>212154</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31305</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10356</v>
+        <v>36769</v>
       </c>
       <c r="C7" t="n">
-        <v>488264</v>
+        <v>1044407</v>
       </c>
       <c r="D7" t="n">
-        <v>497171</v>
+        <v>1080452</v>
       </c>
       <c r="E7" t="n">
-        <v>264614</v>
+        <v>169514</v>
       </c>
       <c r="F7" t="n">
-        <v>79004</v>
+        <v>314047</v>
       </c>
       <c r="G7" t="n">
-        <v>1026223</v>
+        <v>2225229</v>
       </c>
       <c r="H7" t="n">
-        <v>151462</v>
+        <v>394721</v>
       </c>
       <c r="I7" t="n">
-        <v>23313</v>
+        <v>220569</v>
       </c>
       <c r="J7" t="n">
-        <v>303</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13754</v>
+        <v>48033</v>
       </c>
       <c r="C8" t="n">
-        <v>562899</v>
+        <v>1120488</v>
       </c>
       <c r="D8" t="n">
-        <v>580194</v>
+        <v>1159543</v>
       </c>
       <c r="E8" t="n">
-        <v>72347</v>
+        <v>177404</v>
       </c>
       <c r="F8" t="n">
-        <v>305099</v>
+        <v>353455</v>
       </c>
       <c r="G8" t="n">
-        <v>1154946</v>
+        <v>2324903</v>
       </c>
       <c r="H8" t="n">
-        <v>148092</v>
+        <v>387749</v>
       </c>
       <c r="I8" t="n">
-        <v>30964</v>
+        <v>158576</v>
       </c>
       <c r="J8" t="n">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>20328</v>
-      </c>
-      <c r="C9" t="n">
-        <v>635114</v>
-      </c>
-      <c r="D9" t="n">
-        <v>663058</v>
-      </c>
-      <c r="E9" t="n">
-        <v>93988</v>
-      </c>
-      <c r="F9" t="n">
-        <v>306701</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1262051</v>
-      </c>
-      <c r="H9" t="n">
-        <v>135304</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38693</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3979</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>21124</v>
-      </c>
-      <c r="C10" t="n">
-        <v>779340</v>
-      </c>
-      <c r="D10" t="n">
-        <v>808994</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106616</v>
-      </c>
-      <c r="F10" t="n">
-        <v>334986</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1444615</v>
-      </c>
-      <c r="H10" t="n">
-        <v>124560</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45411</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22248</v>
-      </c>
-      <c r="C11" t="n">
-        <v>903394</v>
-      </c>
-      <c r="D11" t="n">
-        <v>939627</v>
-      </c>
-      <c r="E11" t="n">
-        <v>113756</v>
-      </c>
-      <c r="F11" t="n">
-        <v>314260</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1661823</v>
-      </c>
-      <c r="H11" t="n">
-        <v>168950</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77639</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25343</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23699</v>
-      </c>
-      <c r="C12" t="n">
-        <v>966590</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1005177</v>
-      </c>
-      <c r="E12" t="n">
-        <v>148687</v>
-      </c>
-      <c r="F12" t="n">
-        <v>272606</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1838707</v>
-      </c>
-      <c r="H12" t="n">
-        <v>221762</v>
-      </c>
-      <c r="I12" t="n">
-        <v>139948</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26828</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25498</v>
-      </c>
-      <c r="C13" t="n">
-        <v>921164</v>
-      </c>
-      <c r="D13" t="n">
-        <v>953359</v>
-      </c>
-      <c r="E13" t="n">
-        <v>122712</v>
-      </c>
-      <c r="F13" t="n">
-        <v>251233</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1941679</v>
-      </c>
-      <c r="H13" t="n">
-        <v>389546</v>
-      </c>
-      <c r="I13" t="n">
-        <v>176927</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22404</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>29116</v>
-      </c>
-      <c r="C14" t="n">
-        <v>944708</v>
-      </c>
-      <c r="D14" t="n">
-        <v>978342</v>
-      </c>
-      <c r="E14" t="n">
-        <v>133104</v>
-      </c>
-      <c r="F14" t="n">
-        <v>255454</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2015667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>376192</v>
-      </c>
-      <c r="I14" t="n">
-        <v>212154</v>
-      </c>
-      <c r="J14" t="n">
-        <v>31305</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>36769</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1044407</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1080452</v>
-      </c>
-      <c r="E15" t="n">
-        <v>169514</v>
-      </c>
-      <c r="F15" t="n">
-        <v>314047</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2225229</v>
-      </c>
-      <c r="H15" t="n">
-        <v>394721</v>
-      </c>
-      <c r="I15" t="n">
-        <v>220569</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9157</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>48033</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1120488</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1159543</v>
-      </c>
-      <c r="E16" t="n">
-        <v>177404</v>
-      </c>
-      <c r="F16" t="n">
-        <v>353455</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2324903</v>
-      </c>
-      <c r="H16" t="n">
-        <v>387749</v>
-      </c>
-      <c r="I16" t="n">
-        <v>158576</v>
-      </c>
-      <c r="J16" t="n">
         <v>40143</v>
       </c>
     </row>
